--- a/docs/src/main/asciidoc/dist/rn/Release Notes-2.0.1.xlsx
+++ b/docs/src/main/asciidoc/dist/rn/Release Notes-2.0.1.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890"/>
+    <workbookView xWindow="510" yWindow="840" windowWidth="18375" windowHeight="10905"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -14,12 +14,18 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Folha1!$B$4:$J$4</definedName>
   </definedNames>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="224">
+  <si>
+    <t>Changes applied in release 2.0.1</t>
+  </si>
+  <si>
+    <t>The change requests are maintained in the ESPD-EDM Github Issue space:  https://github.com/ESPD/ESPD-EDM/issues</t>
+  </si>
   <si>
     <t>Issue #ID</t>
   </si>
@@ -30,40 +36,296 @@
     <t>Status</t>
   </si>
   <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>To be solved in Release</t>
+  </si>
+  <si>
     <t>Comments</t>
   </si>
   <si>
+    <t>Impacts</t>
+  </si>
+  <si>
+    <t>Solution</t>
+  </si>
+  <si>
+    <t>NEW BUSINESS RULES (SPECIALLY RELEVANT FOR THE BIZDOC)</t>
+  </si>
+  <si>
+    <t>Mapping between V1.0.2 and V2.0.0</t>
+  </si>
+  <si>
+    <t>Mapping between V2.0.0 and V2.0.0</t>
+  </si>
+  <si>
+    <t>Unused CodeLists</t>
+  </si>
+  <si>
+    <t>CLOSED</t>
+  </si>
+  <si>
+    <t>ActivityType and ContractType code lists seem not be used in any case for the ESPD-EDM 2.0.0.</t>
+  </si>
+  <si>
+    <t>2.0.1</t>
+  </si>
+  <si>
+    <t>In version 2.0.1 these codelists have been removed, as they're not used. ContractType is covered by the CodeList "ProcedureType".</t>
+  </si>
+  <si>
+    <t>cac:TenderingCriterionResponse/cac:ResponseValue cannot be mandatory</t>
+  </si>
+  <si>
+    <t>The current structure for the response allows responding values inside the cac:ResponseValue element or in other elements of the cac:TenderingCriterionResponse, like cac:TenderingCriterionResponse/cac:ApplicablePeriod and cac:TenderingCriterionResponse/cac:EvidenceSupplied.
+Therefore the cardinality of the cac:TenderingCriterionResponse/cac:ResponseValue should be 0..* (although in most cases only one value is expected there are some cases where a collection of values must be provided, e.g. a list of Lots IDs, see documentation and examples on Lots).</t>
+  </si>
+  <si>
+    <t>1. Documentation</t>
+  </si>
+  <si>
+    <t>This will be corrected in the documentation of the version 2.0.1. Beware that the UBL Schema allows for cardinality 0..*.
+Nonetheless this has been subject of discussion with UBL-2.2 (i.e. shouldn't the Period and Evidence be specified as elements of the ResponseValue, instead of elements of the cac:Tendering CriterionResponse, even worse: what is the true semantics of the qualifier "Applicable" in the case of Period) values and was decided to postpone a better design for future versions of UBL.</t>
+  </si>
+  <si>
+    <t>Cardinality of cac:TenderingCriterionResponse/cac:ResponseValue  should be 0..n</t>
+  </si>
+  <si>
+    <t>Cardinality of cac:Evidence/cbc:ID should be mandatory</t>
+  </si>
+  <si>
+    <t>The "/QualificationApplicationResponse/cac:Evidence/cbc:ID" should have a cardinality of 1..1 (currently 0..1).
+Reason: If there is an evidence used in the ESPD response, it should be always connected to a criterion and criterion response through a cross reference to the class /QualificationApplicationResponse/cac:TenderingCriterionResponse".
+(similar relationsship occurs between "TenderingCriterionResponse" and "cac:TenderingCriterion")</t>
+  </si>
+  <si>
+    <t>1. Documentation
+2. Business Rules
+3. BizDoc</t>
+  </si>
+  <si>
+    <t>A Schematron rule has been added to control the cardinality of this element
+The documentation has been modified.</t>
+  </si>
+  <si>
+    <t>Cardinality of the Evidence ID must be 1..1</t>
+  </si>
+  <si>
+    <t>Criteria Taxonomies need to be reviewed</t>
+  </si>
+  <si>
+    <t>Both the drawings in the documentation as well as the definitions and uuids in the spread-sheets contained in the distribution package need to be reviewed, as some errors have been detected.</t>
+  </si>
+  <si>
+    <t>1. Documentation
+2. Spreadsheets in folder cl, editorial minor changes</t>
+  </si>
+  <si>
+    <t>Schemas in documentation (v.2.0.1) have been reviewed
+UUIDs, names and descriptions in files ESPD-REGULATED-CriteriaTaxonomy-V02.00.01 and ESPD-SELFCONTAINED-CriteriaTaxonomy-V02.00.01.xlsx do match now the ones in ESPD-Data_Structures-REGULATED-V02.00.01 and ESPD-Data_Structures-SELFCONTAINED-V02.00.01 spreadsheet books.</t>
+  </si>
+  <si>
+    <t>ProcurementProject should be of cardinality 1..1 in ESPD Request</t>
+  </si>
+  <si>
+    <t>The cac:ProcurementProject cardinality in the UBL-2.2 XSD Schema is 0..1. The ESPD-EDM-2.0.0 documentation specifies also cardinality 0..1, however:
+This component represents the "common data about the procurement procedure";
+All procurement procedures have always a short "name" (or title) and optionally a "description"
+Therefore the component should be requested always, at least in the ESPD Request.</t>
+  </si>
+  <si>
+    <t>1. Documentation modified
+2. A Schematron business rule has been implemented in version 2.0.1 to control that an ESPD Request XML instance contains always an object cac:ProcurementProject and that the sub-element "cac:ProcurementProject/cbc:Name" contains a value.</t>
+  </si>
+  <si>
+    <t>The Procurement Project represents the procruement procedure. All procedure needs to be identified with an ID and a name. The ESPD Request must always carry an element ProcurementProject with a name and, optionally, a description.</t>
+  </si>
+  <si>
+    <t>Unused codelists</t>
+  </si>
+  <si>
+    <t>The following codelists, distributed in version 2.0.0, are not actually used:
+1- ActivityTypeCode
+2- AmountTypeCode
+3- ContractType (instead the ProjectType codelist, maintained by the Publications Office, is used).</t>
+  </si>
+  <si>
+    <t>1. CodeList spread-sheets book
+2. Conversions between V 1.0.2 and V2.0.0.</t>
+  </si>
+  <si>
+    <t>Need to control Code conversions</t>
+  </si>
+  <si>
+    <t>Incorrect requirement about Lots related to ESPD-EDM-2.0.0 REGULATED</t>
+  </si>
+  <si>
+    <t>The documentation about ESPD-EDM-2.0.0 contains the following requirement:
+REQUIREMENT | At least one Lot must be always instantiated in the Regulated ESPD XML document. If the procurement procedure is not divided into Lots the only lot present in the Regulated ESPD XML document represents the procedure, and its Identifier value must be '0'.
+It should read:
+REQUIREMENT
+One Lot must be always instantiated in the Regulated ESPD XML document. It only expects one Lot representing the procurement procedure.
+The REGULATED version of the ESPD cannot be used for procurement procedures divided into Lots (for procedures divided into Lots use the SELF-CONTAINED version).</t>
+  </si>
+  <si>
+    <t>1. BizDoc
+2. ESPD-EDM-2.0.1 DOCUMENTATION</t>
+  </si>
+  <si>
+    <t>The documentation (in version 2.0.1) reads now:
+One Lot must be always instantiated in the REGULATED ESPD XML document, and its identifier value should be '0'. The REGULATED version of the ESPD cannot be used for procurement procedures divided into Lots.
+For procedures divided into Lots use the SELF-CONTAINED version.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+One Lot must be always instantiated in the Regulated ESPD XML document. It only expects one Lot representing the procurement procedure. 
+The REGULATED version of the ESPD cannot be used for procurement procedures divided into Lots (for procedures divided into Lots use the SELF-CONTAINED version).  </t>
+  </si>
+  <si>
+    <t>Sole Contractor and Lead Entity should not share the same code</t>
+  </si>
+  <si>
+    <t>OPEN</t>
+  </si>
+  <si>
+    <t>The current version of the ESPD-EDMv2.0.0 defines one single code "SCLE" to both Sole Contractor and Lead Entity.
+This is an inconvenient and error-prone when the times comes to draft schematron rules in order to decide whether the role of the economic operator and determine which additional information needs to be required or not.
+For version 2.0.1 the rule to distinguish whether the economic operator is a Leader consists in:
+The EO role code = SCLE AND the element "/cbc:EconomicOperatorGroupName" contains a value.
+We propose to discuss this and promote a solution for the release 2.0.2.</t>
+  </si>
+  <si>
+    <t>2.0.2</t>
+  </si>
+  <si>
+    <t>1. Codes
+2. Documentation (mockups and explanations)
+3. Business Rules</t>
+  </si>
+  <si>
+    <t>Propose SC for Sole Contractor and LE for Lead Entity in CodeList EORoles</t>
+  </si>
+  <si>
+    <t>Misalignment between ESPD-CriteriaTaxonomy-V02.00.00.xlsx and ESPD-Data_Structures-SELFCONTAINED-V02.00.01.xlsx</t>
+  </si>
+  <si>
+    <t>The ESPD-Data_Structures-SELFCONTAINED-V02.00.01.xlsx should be updated according to the data structures in files ESPD-Data_Structures-REGULATED-V02.00.01.xlsx and ESPD-Data_Structures-SELFCONTAINED-V02.00.01.xlsx.</t>
+  </si>
+  <si>
+    <t>Criteria Taxonomy in CodeList ESPD-CriteriaTaxonomy-V02.00.01.xlsx</t>
+  </si>
+  <si>
+    <t>Burak to update this on Monday 22nd.</t>
+  </si>
+  <si>
+    <t>Need to re-model some data structures as UBL-classes</t>
+  </si>
+  <si>
+    <t>Since the very beginning of the ESPD-EDM until the latest version 2.0.0, some data structures were modelled using the Criterion class to express information that are not true criteria. Examples of this, in version 2.0.0 are:
+C57: OTHER-EO-SHELTERED
+C58: OTHER-EO-PQS
+C59: OTHER-EO-GROUPS
+C60: OTHER-EO-Lots
+C61: OTHER-EO-Contributions
+C62: OTHER-EO-RELIED_ON-ENTITIES
+C63: OTHER-EO-NOT_RELIED_ON-ENTITIES
+The information requirements that now are "super-modelled" as data structures in these "false criteria" should go in future UBL classes. Our proposal is to take them into account for the UBL-2.3 version (as a basis for a future ESPD-EDM version 3?).</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Exchange Data Model</t>
+  </si>
+  <si>
+    <t>Subgroups of Abilities requirements with identical @UUID</t>
+  </si>
+  <si>
+    <t>In file ESPD-Data_Structures-SELFCONTAINED-V02.00.01 requirement group in data structures SC-Abilities_2_Checks and SC-Abilities_3 have identical UUIDs but the structures are different.</t>
+  </si>
+  <si>
+    <t>Data Structures</t>
+  </si>
+  <si>
+    <t>Corrected in release ESPD-EDM v.2.0.1:
+SC-Abilities_2_Checks --&gt; Group #ID 9026e403-3eb6-4705-a9e9-e21a1efc867d added inside the requirement group #ID 10822ddd-9ba6-42d5-9339-de0845aeafc9
+SC-Abilities_3 --&gt; Group #ID 9026e403-3eb6-4705-a9e9-e21a1efc867d added inside the requirement group #ID 7f7949a8-dbe6-496c-a9f6-6f05b8648bad</t>
+  </si>
+  <si>
+    <t>Subgroups of requirements with the same ID</t>
+  </si>
+  <si>
+    <t>In ESPD-Data_Structures-SELFCONTAINED-V02.00.00 the subgroups of requirements SC-General_Turnover, SC-Specific_Turnover, SC-General_Average_Turnover, SC-Specific_Average_Turnover have the same Element UUID 5ca58d66-3ef1-4145-957c-45d5b18a837f, but the structures are different (hence they are separated in different tabs of the spread-sheets book).</t>
+  </si>
+  <si>
+    <t>The new ESPD-EDM release, version 2.0.1 has corrected this. The new #UUIDs are now:
+SC-General_Turnover --&gt; 5ca58d66-3ef1-4145-957c-45d5b18a837f
+SC-Specific_Turnover --&gt; 19a68e37-d307-4a28-9061-c22cd767be58
+SC-General_Average_Turnover --&gt; 53882893-f4a8-40ae-99dc-cad7b0748790
+SC-Specific_Average_Turnover --&gt; 6cff132b-8d15-4f79-ae37-2f9295432381</t>
+  </si>
+  <si>
+    <t>Change request for Insurance criteria (Part IV)</t>
+  </si>
+  <si>
+    <t>Background
+In Ireland it’s common to have more that one insurance requirement in procurements. Therefore we would like to suggest an extension for the “Professional Risk Indemnity Insurance” in V1.0.2 data model or the regulated ESPD
+Description of the Extension
+Area/Scope
+This extension is only applicable for the Economic Operator and for the V1.0.2 or Regulated ESPD data model
+Extension
+We need to Add one more field “Insurance type” to the existing “Professional Risk Indemnity Insurance” criterion. This new field is a simple text field that will allow the EO to specify the insurance type
+Allow the EO to Add multiple insurance.
+Please see screenshot below for an illustration
+insurance requiremnet
+Other info
+Please note that we understand that this issue has been addressed it in V2 (self-contained). Therefore our request is only scoped and necessary for the V1.0.2 data model or the regulated ESPD</t>
+  </si>
+  <si>
+    <t>This would be a change request for the ESPD-Service and the ESPD-EDM….should we accept these Change Requests for the ESPD-Service? And for the ESDP-1.0.2? Or we should take them into account only for the ESPD-EMD-2.0.0-REGULATED version?</t>
+  </si>
+  <si>
+    <t>Propper schemeID of TED number</t>
+  </si>
+  <si>
+    <t>When generating an ESPD Request in the ESPD Service using a dummy TED number, I get the following:
+&lt;cbc:ID
+    schemeID="COM-GROW-TEMPORARY-ID" 
+    schemeAgencyID="EU-COM-GROW"
+    schemeAgencyName="DG GROW (European Commission)"
+    schemeVersionID="1.1"&gt;0000/S 000-000000&lt;/cbc:ID&gt;
+When uploading the very same ESPD Request to the ESPD Service and using the very same dummy TED number, I get the following in the ESPD Response:
+&lt;cbc:ID
+    schemeID="ISO/IEC 9834-8:2008 - 4UUID"
+    schemeAgencyID="EU-COM-GROW"
+    schemeAgencyName="DG GROW (European Commission)" 
+    schemeVersionID="1.1"&gt;0000/S 000-000000&lt;/cbc:ID&gt;
+The TED number is not an UUID.
+What is the expected schemeID for ESPD Response when a TED number is provided?</t>
+  </si>
+  <si>
+    <t>This seems an issue provoked by the ESPD-Service</t>
+  </si>
+  <si>
     <t>Missing code "NGOJ" in DocRefContentType</t>
   </si>
   <si>
-    <t>OPEN</t>
-  </si>
-  <si>
-    <t>This seems an issue provoked by the ESPD-Service</t>
-  </si>
-  <si>
-    <t>Change request for Insurance criteria (Part IV)</t>
-  </si>
-  <si>
-    <t>This would be a change request for the ESPD-Service and the ESPD-EDM….should we accept these Change Requests for the ESPD-Service? And for the ESDP-1.0.2? Or we should take them into account only for the ESPD-EMD-2.0.0-REGULATED version?</t>
-  </si>
-  <si>
-    <t>Propper schemeID of TED number</t>
-  </si>
-  <si>
     <t>Evidence Supplied / Evidence Identifier in ESPD Data Structures</t>
   </si>
   <si>
-    <t>Impacts</t>
-  </si>
-  <si>
-    <t>Solution</t>
-  </si>
-  <si>
-    <t>GROUP #UUID 9026e403-3eb6-4705-a9e9-e21a1efc867d IS NOW ASSOCIATED TO ALL CRITERIA WITH cardinality 1.</t>
-  </si>
-  <si>
-    <t>2.0.1</t>
+    <t>For each criteria there should be a possibility to indicate an evidence through an evidence identifier in order to support the once only principle. If not available, EOs have to re-enter their prequalification information into the ESPD since they are managed in external documents. At least for the following criteria they should be added in order to link to documents available in the German prequalification database:
+Breaching of obligations in the fields of social law
+Breaching of obligations in the fields of labour law
+Guilty of grave professional misconduct
+Agreements with other economic operators aimed at distorting competition
+Early termination, damages or other comparable sanctions
+General yearly turnover
+Specific yearly turnover
+Average yearly turnover
+Specific yearly turnover
+Number of managerial staff
+Average annual manpower</t>
   </si>
   <si>
     <t>1) Does not impact on the Data Model. 
@@ -136,132 +398,7 @@
 The documentation has been changed accordingly: the images corresponding to all these data structures have been updated.</t>
   </si>
   <si>
-    <t>CLOSED</t>
-  </si>
-  <si>
-    <t>JurisdictionLevelCode link between eCertis and ESPD</t>
-  </si>
-  <si>
-    <t>2.0.0</t>
-  </si>
-  <si>
-    <t>1. This is an issue for eCertis: The codes defined in ESPD-EDMv1.0.2 are the same as the ones used in the subsequent versions of the ESPD-EDM. We recommend the creation of a specific area for eCertis in this Github space and move all the issues related to eCertis there.
-2. Beware, however, that the name of the codelist (not its content) changed from "JurisdictionLevelCode" in version 1.0.2 to "LegislationType" in version 2.0.0.</t>
-  </si>
-  <si>
-    <t>Misalignment between ESPD-CriteriaTaxonomy-V02.00.00.xlsx and ESPD-Data_Structures-SELFCONTAINED-V02.00.01.xlsx</t>
-  </si>
-  <si>
-    <t>The ESPD-Data_Structures-SELFCONTAINED-V02.00.01.xlsx should be updated according to the data structures in files ESPD-Data_Structures-REGULATED-V02.00.01.xlsx and ESPD-Data_Structures-SELFCONTAINED-V02.00.01.xlsx.</t>
-  </si>
-  <si>
-    <t>Criteria Taxonomy in CodeList ESPD-CriteriaTaxonomy-V02.00.01.xlsx</t>
-  </si>
-  <si>
-    <t>Burak to update this on Monday 22nd.</t>
-  </si>
-  <si>
-    <t>Need to re-model some data structures as UBL-classes</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>Since the very beginning of the ESPD-EDM until the latest version 2.0.0, some data structures were modelled using the Criterion class to express information that are not true criteria. Examples of this, in version 2.0.0 are:
-C57: OTHER-EO-SHELTERED
-C58: OTHER-EO-PQS
-C59: OTHER-EO-GROUPS
-C60: OTHER-EO-Lots
-C61: OTHER-EO-Contributions
-C62: OTHER-EO-RELIED_ON-ENTITIES
-C63: OTHER-EO-NOT_RELIED_ON-ENTITIES
-The information requirements that now are "super-modelled" as data structures in these "false criteria" should go in future UBL classes. Our proposal is to take them into account for the UBL-2.3 version (as a basis for a future ESPD-EDM version 3?).</t>
-  </si>
-  <si>
-    <t>Exchange Data Model</t>
-  </si>
-  <si>
-    <t>Subgroups of Abilities requirements with identical @UUID</t>
-  </si>
-  <si>
-    <t>Corrected in release ESPD-EDM v.2.0.1:
-SC-Abilities_2_Checks --&gt; Group #ID 9026e403-3eb6-4705-a9e9-e21a1efc867d added inside the requirement group #ID 10822ddd-9ba6-42d5-9339-de0845aeafc9
-SC-Abilities_3 --&gt; Group #ID 9026e403-3eb6-4705-a9e9-e21a1efc867d added inside the requirement group #ID 7f7949a8-dbe6-496c-a9f6-6f05b8648bad</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>In file ESPD-Data_Structures-SELFCONTAINED-V02.00.01 requirement group in data structures SC-Abilities_2_Checks and SC-Abilities_3 have identical UUIDs but the structures are different.</t>
-  </si>
-  <si>
-    <t>Subgroups of requirements with the same ID</t>
-  </si>
-  <si>
-    <t>In ESPD-Data_Structures-SELFCONTAINED-V02.00.00 the subgroups of requirements SC-General_Turnover, SC-Specific_Turnover, SC-General_Average_Turnover, SC-Specific_Average_Turnover have the same Element UUID 5ca58d66-3ef1-4145-957c-45d5b18a837f, but the structures are different (hence they are separated in different tabs of the spread-sheets book).</t>
-  </si>
-  <si>
-    <t>Data Structures</t>
-  </si>
-  <si>
-    <t>The new ESPD-EDM release, version 2.0.1 has corrected this. The new #UUIDs are now:
-SC-General_Turnover --&gt; 5ca58d66-3ef1-4145-957c-45d5b18a837f
-SC-Specific_Turnover --&gt; 19a68e37-d307-4a28-9061-c22cd767be58
-SC-General_Average_Turnover --&gt; 53882893-f4a8-40ae-99dc-cad7b0748790
-SC-Specific_Average_Turnover --&gt; 6cff132b-8d15-4f79-ae37-2f9295432381</t>
-  </si>
-  <si>
-    <t>Background
-In Ireland it’s common to have more that one insurance requirement in procurements. Therefore we would like to suggest an extension for the “Professional Risk Indemnity Insurance” in V1.0.2 data model or the regulated ESPD
-Description of the Extension
-Area/Scope
-This extension is only applicable for the Economic Operator and for the V1.0.2 or Regulated ESPD data model
-Extension
-We need to Add one more field “Insurance type” to the existing “Professional Risk Indemnity Insurance” criterion. This new field is a simple text field that will allow the EO to specify the insurance type
-Allow the EO to Add multiple insurance.
-Please see screenshot below for an illustration
-insurance requiremnet
-Other info
-Please note that we understand that this issue has been addressed it in V2 (self-contained). Therefore our request is only scoped and necessary for the V1.0.2 data model or the regulated ESPD</t>
-  </si>
-  <si>
-    <t>When generating an ESPD Request in the ESPD Service using a dummy TED number, I get the following:
-&lt;cbc:ID
-    schemeID="COM-GROW-TEMPORARY-ID" 
-    schemeAgencyID="EU-COM-GROW"
-    schemeAgencyName="DG GROW (European Commission)"
-    schemeVersionID="1.1"&gt;0000/S 000-000000&lt;/cbc:ID&gt;
-When uploading the very same ESPD Request to the ESPD Service and using the very same dummy TED number, I get the following in the ESPD Response:
-&lt;cbc:ID
-    schemeID="ISO/IEC 9834-8:2008 - 4UUID"
-    schemeAgencyID="EU-COM-GROW"
-    schemeAgencyName="DG GROW (European Commission)" 
-    schemeVersionID="1.1"&gt;0000/S 000-000000&lt;/cbc:ID&gt;
-The TED number is not an UUID.
-What is the expected schemeID for ESPD Response when a TED number is provided?</t>
-  </si>
-  <si>
-    <t>For each criteria there should be a possibility to indicate an evidence through an evidence identifier in order to support the once only principle. If not available, EOs have to re-enter their prequalification information into the ESPD since they are managed in external documents. At least for the following criteria they should be added in order to link to documents available in the German prequalification database:
-Breaching of obligations in the fields of social law
-Breaching of obligations in the fields of labour law
-Guilty of grave professional misconduct
-Agreements with other economic operators aimed at distorting competition
-Early termination, damages or other comparable sanctions
-General yearly turnover
-Specific yearly turnover
-Average yearly turnover
-Specific yearly turnover
-Number of managerial staff
-Average annual manpower</t>
-  </si>
-  <si>
-    <t>Currently it is foreseen that it will be mandatory to have an ESPD Request which has to be attached to an ESPD Repsonse. This architecture makes is unflexible in some scenarios. According the german laws EOs are able to qualifiy through a prequalification system. This system does not require to have an ESPD request beforehand as the prequalification requirements (and the corresponding criteria) are governed by law. In order to ease the process and to increase the use of the EPSD, we plan to only use the ESPD response in these scenarios.</t>
-  </si>
-  <si>
-    <t>Mandatory reference to ESPD Request in EPSD response</t>
-  </si>
-  <si>
-    <t>There is a need to technically link to the ESPD request in the ESPD response. However, on a business level the link can be established by anyone. In the example above this could be done by the PQ service provider by applying e.g, a default PQ template.</t>
+    <t>GROUP #UUID 9026e403-3eb6-4705-a9e9-e21a1efc867d IS NOW ASSOCIATED TO ALL CRITERIA WITH cardinality 1.</t>
   </si>
   <si>
     <t>Missing eCertis information for "Direct or indirect involvement in the preparation of this procurement procedure" criterion</t>
@@ -281,6 +418,41 @@
   <si>
     <t>1. Impacts on eCertis
 2. Does not impact the EDM</t>
+  </si>
+  <si>
+    <t>Mandatory reference to ESPD Request in EPSD response</t>
+  </si>
+  <si>
+    <t>Currently it is foreseen that it will be mandatory to have an ESPD Request which has to be attached to an ESPD Repsonse. This architecture makes is unflexible in some scenarios. According the german laws EOs are able to qualifiy through a prequalification system. This system does not require to have an ESPD request beforehand as the prequalification requirements (and the corresponding criteria) are governed by law. In order to ease the process and to increase the use of the EPSD, we plan to only use the ESPD response in these scenarios.</t>
+  </si>
+  <si>
+    <t>There is a need to technically link to the ESPD request in the ESPD response. However, on a business level the link can be established by anyone. In the example above this could be done by the PQ service provider by applying e.g, a default PQ template.</t>
+  </si>
+  <si>
+    <t>JurisdictionLevelCode link between eCertis and ESPD</t>
+  </si>
+  <si>
+    <t>2.0.0</t>
+  </si>
+  <si>
+    <t>1. This is an issue for eCertis: The codes defined in ESPD-EDMv1.0.2 are the same as the ones used in the subsequent versions of the ESPD-EDM. We recommend the creation of a specific area for eCertis in this Github space and move all the issues related to eCertis there.
+2. Beware, however, that the name of the codelist (not its content) changed from "JurisdictionLevelCode" in version 1.0.2 to "LegislationType" in version 2.0.0.</t>
+  </si>
+  <si>
+    <t>Figures in ESPD Response XML Instantiation Guide</t>
+  </si>
+  <si>
+    <t>The figures in the ESPD Response XML Instantiation Guide are not shown
+https://espd.github.io/ESPD-EDM/v1.0.2/index_response.html</t>
+  </si>
+  <si>
+    <t>Virgiliu: it should be fixed now, thank you for reporting this.</t>
+  </si>
+  <si>
+    <t>EDM-V1.0.2 Documentation</t>
+  </si>
+  <si>
+    <t>Fixed</t>
   </si>
   <si>
     <t>Schematron error when ESPD Response contains Lot Information</t>
@@ -303,20 +475,29 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <scheme val="minor"/>
       </rPr>
       <t>PASS TO MARIA ASAP</t>
     </r>
     <r>
       <rPr>
+        <b/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 This is being corrected in the Version 2.0.1 REGULATED version. We can correct this also for version 1.0.2 but in order to not having to create a new version 1.0.3 or similar I propose to create a folder with bug-fixes for version 1.0.2 ("Previous-versions-fixed-bugs") inside the distribution package of version 2.0.1.
@@ -325,48 +506,6 @@
   </si>
   <si>
     <t>EDM V1.0.2</t>
-  </si>
-  <si>
-    <t>C36 - Other economic or financial requirements</t>
-  </si>
-  <si>
-    <t>As per so many of the new criteria updates, there are grammar errors in the text.
-"Concerning the other economic or financial requirements, if any, that may have been specified in the relevant notice or the in the ESPD, the relevant notice or , the economic operator declares that:"
-Were the updates automated? There are grammar mistakes throughout.</t>
-  </si>
-  <si>
-    <t>These texts were copied and pasted from the ESPD-Service interface. Therefore any error detected are also to be checked against that interface and reported onto the ESPD-Service issue space in this very Github.
-This particular C36 error has been corrected in the documentation and will appear as so in version 2.0.1.</t>
-  </si>
-  <si>
-    <t>EDM 2.0.1 Documentation</t>
-  </si>
-  <si>
-    <t>Figures in ESPD Response XML Instantiation Guide</t>
-  </si>
-  <si>
-    <t>The figures in the ESPD Response XML Instantiation Guide are not shown
-https://espd.github.io/ESPD-EDM/v1.0.2/index_response.html</t>
-  </si>
-  <si>
-    <t>Virgiliu: it should be fixed now, thank you for reporting this.</t>
-  </si>
-  <si>
-    <t>EDM-V1.0.2 Documentation</t>
-  </si>
-  <si>
-    <t>Fixed</t>
-  </si>
-  <si>
-    <t>C23 - Multiple line description</t>
-  </si>
-  <si>
-    <t>Can you please explain what the following means:
-"BEWARE THAT IN THIS CASE, THE CRITERION DESCRIPTION IS SPLIT IN THREE LINES. THIS WILL GENERATE THREE DESCRIPTION ELEMENTS IN THE XML INSTANCE (THE UBL-2.2 XSD SCHEMA DOES ALWAY CATTER FOR 0..n DESCRIPTION LINES."
-In the example response you have provided this is not the case, in fact a/b/c is not included</t>
-  </si>
-  <si>
-    <t>The documentation and XML have been corrected.</t>
   </si>
   <si>
     <t xml:space="preserve">After revewing this story and origins of this issue the conclusions are:
@@ -378,93 +517,37 @@
 </t>
   </si>
   <si>
-    <t>NEW BUSINESS RULES (SPECIALLY RELEVANT FOR THE BIZDOC)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-One Lot must be always instantiated in the Regulated ESPD XML document. It only expects one Lot representing the procurement procedure. 
-The REGULATED version of the ESPD cannot be used for procurement procedures divided into Lots (for procedures divided into Lots use the SELF-CONTAINED version).  </t>
-  </si>
-  <si>
-    <t>Incorrect requirement about Lots related to ESPD-EDM-2.0.0 REGULATED</t>
-  </si>
-  <si>
-    <t>Sole Contractor and Lead Entity should not share the same code</t>
-  </si>
-  <si>
-    <t>The current version of the ESPD-EDMv2.0.0 defines one single code "SCLE" to both Sole Contractor and Lead Entity.
-This is an inconvenient and error-prone when the times comes to draft schematron rules in order to decide whether the role of the economic operator and determine which additional information needs to be required or not.
-For version 2.0.1 the rule to distinguish whether the economic operator is a Leader consists in:
-The EO role code = SCLE AND the element "/cbc:EconomicOperatorGroupName" contains a value.
-We propose to discuss this and promote a solution for the release 2.0.2.</t>
-  </si>
-  <si>
-    <t>2.0.2</t>
-  </si>
-  <si>
-    <t>To be solved in Release</t>
-  </si>
-  <si>
-    <t>1. Codes
-2. Documentation (mockups and explanations)
-3. Business Rules</t>
-  </si>
-  <si>
-    <t>Propose SC for Sole Contractor and LE for Lead Entity in CodeList EORoles</t>
+    <t>C36 - Other economic or financial requirements</t>
+  </si>
+  <si>
+    <t>As per so many of the new criteria updates, there are grammar errors in the text.
+"Concerning the other economic or financial requirements, if any, that may have been specified in the relevant notice or the in the ESPD, the relevant notice or , the economic operator declares that:"
+Were the updates automated? There are grammar mistakes throughout.</t>
+  </si>
+  <si>
+    <t>EDM 2.0.1 Documentation</t>
+  </si>
+  <si>
+    <t>These texts were copied and pasted from the ESPD-Service interface. Therefore any error detected are also to be checked against that interface and reported onto the ESPD-Service issue space in this very Github.
+This particular C36 error has been corrected in the documentation and will appear as so in version 2.0.1.</t>
+  </si>
+  <si>
+    <t>C23 - Multiple line description</t>
+  </si>
+  <si>
+    <t>Can you please explain what the following means:
+"BEWARE THAT IN THIS CASE, THE CRITERION DESCRIPTION IS SPLIT IN THREE LINES. THIS WILL GENERATE THREE DESCRIPTION ELEMENTS IN THE XML INSTANCE (THE UBL-2.2 XSD SCHEMA DOES ALWAY CATTER FOR 0..n DESCRIPTION LINES."
+In the example response you have provided this is not the case, in fact a/b/c is not included</t>
+  </si>
+  <si>
+    <t>The transformation XLST artefacts in version 2.0.0 and 2.0.1 are not coping with this. Try and modify the artefacts to fix this problem in version 2.0.3.</t>
   </si>
   <si>
     <t>1. EDM 2.0.1 Documentation
 2. XML examples</t>
   </si>
   <si>
-    <t>Unused codelists</t>
-  </si>
-  <si>
-    <t>The following codelists, distributed in version 2.0.0, are not actually used:
-1- ActivityTypeCode
-2- AmountTypeCode
-3- ContractType (instead the ProjectType codelist, maintained by the Publications Office, is used).</t>
-  </si>
-  <si>
-    <t>1. CodeList spread-sheets book
-2. Conversions between V 1.0.2 and V2.0.0.</t>
-  </si>
-  <si>
-    <t>Mapping between V2.0.0 and V2.0.0</t>
-  </si>
-  <si>
-    <t>Mapping between V1.0.2 and V2.0.0</t>
-  </si>
-  <si>
-    <t>Need to control Code conversions</t>
-  </si>
-  <si>
-    <t>ProcurementProject should be of cardinality 1..1 in ESPD Request</t>
-  </si>
-  <si>
-    <t>The cac:ProcurementProject cardinality in the UBL-2.2 XSD Schema is 0..1. The ESPD-EDM-2.0.0 documentation specifies also cardinality 0..1, however:
-This component represents the "common data about the procurement procedure";
-All procurement procedures have always a short "name" (or title) and optionally a "description"
-Therefore the component should be requested always, at least in the ESPD Request.</t>
-  </si>
-  <si>
-    <t>1. Documentation
-2. Business Rules
-3. BizDoc</t>
-  </si>
-  <si>
-    <t>1. BizDoc
-2. ESPD-EDM-2.0.1 DOCUMENTATION</t>
-  </si>
-  <si>
-    <t>The Procurement Project represents the procruement procedure. All procedure needs to be identified with an ID and a name. The ESPD Request must always carry an element ProcurementProject with a name and, optionally, a description.</t>
-  </si>
-  <si>
-    <t>1. Documentation modified
-2. A Schematron business rule has been implemented in version 2.0.1 to control that an ESPD Request XML instance contains always an object cac:ProcurementProject and that the sub-element "cac:ProcurementProject/cbc:Name" contains a value.</t>
-  </si>
-  <si>
-    <t>The transformation XLST artefacts in version 2.0.0 and 2.0.1 are not coping with this. Try and modify the artefacts to fix this problem in version 2.0.3.</t>
+    <t>The documentation and XML have been corrected.</t>
   </si>
   <si>
     <t>C7 - Payment of taxes</t>
@@ -480,52 +563,14 @@
 On the opposite, if the answer is "no" (ONFALSE) the question "If this breach of obligations was established through a judicial or administrative decision, was this decision final and binding?" is shown.</t>
   </si>
   <si>
-    <t>The documentation about ESPD-EDM-2.0.0 contains the following requirement:
-REQUIREMENT | At least one Lot must be always instantiated in the Regulated ESPD XML document. If the procurement procedure is not divided into Lots the only lot present in the Regulated ESPD XML document represents the procedure, and its Identifier value must be '0'.
-It should read:
-REQUIREMENT
-One Lot must be always instantiated in the Regulated ESPD XML document. It only expects one Lot representing the procurement procedure.
-The REGULATED version of the ESPD cannot be used for procurement procedures divided into Lots (for procedures divided into Lots use the SELF-CONTAINED version).</t>
-  </si>
-  <si>
-    <t>The documentation (in version 2.0.1) reads now:
-One Lot must be always instantiated in the REGULATED ESPD XML document, and its identifier value should be '0'. The REGULATED version of the ESPD cannot be used for procurement procedures divided into Lots.
-For procedures divided into Lots use the SELF-CONTAINED version.</t>
-  </si>
-  <si>
-    <t>Criteria Taxonomies need to be reviewed</t>
-  </si>
-  <si>
-    <t>Both the drawings in the documentation as well as the definitions and uuids in the spread-sheets contained in the distribution package need to be reviewed, as some errors have been detected.</t>
-  </si>
-  <si>
-    <t>1. Documentation
-2. Spreadsheets in folder cl, editorial minor changes</t>
-  </si>
-  <si>
-    <t>Schemas in documentation (v.2.0.1) have been reviewed
-UUIDs, names and descriptions in files ESPD-REGULATED-CriteriaTaxonomy-V02.00.01 and ESPD-SELFCONTAINED-CriteriaTaxonomy-V02.00.01.xlsx do match now the ones in ESPD-Data_Structures-REGULATED-V02.00.01 and ESPD-Data_Structures-SELFCONTAINED-V02.00.01 spreadsheet books.</t>
-  </si>
-  <si>
-    <t>Cardinality of cac:Evidence/cbc:ID should be mandatory</t>
-  </si>
-  <si>
-    <t>The "/QualificationApplicationResponse/cac:Evidence/cbc:ID" should have a cardinality of 1..1 (currently 0..1).
-Reason: If there is an evidence used in the ESPD response, it should be always connected to a criterion and criterion response through a cross reference to the class /QualificationApplicationResponse/cac:TenderingCriterionResponse".
-(similar relationsship occurs between "TenderingCriterionResponse" and "cac:TenderingCriterion")</t>
-  </si>
-  <si>
-    <t>A Schematron rule has been added to control the cardinality of this element
-The documentation has been modified.</t>
-  </si>
-  <si>
-    <t>Cardinality of the Evidence ID must be 1..1</t>
-  </si>
-  <si>
     <t>C30 - CPV codes</t>
   </si>
   <si>
     <t>Question 30 asks for CPV codes, is that intentional?</t>
+  </si>
+  <si>
+    <t>MC: Yes this is intentional because it will allow the CA to either use a business domain description OR a CPV code to provide the domain for the yearly turnover.
+Text will be checked.</t>
   </si>
   <si>
     <t>MC is right. Additional explanatory texts have been added at the beginning of sections "VI.2.6 Self-contained specific yearly turnover" and "VI.2.8 Self-contained specific average turnover", e.g.:
@@ -534,9 +579,6 @@
 See also section about the SELF-CONTAINED specific average turnover.**</t>
   </si>
   <si>
-    <t>1. Documentation</t>
-  </si>
-  <si>
     <t>C22 - Incorrect Element Code</t>
   </si>
   <si>
@@ -544,24 +586,11 @@
 This should be an indicator</t>
   </si>
   <si>
+    <t>MC: Yes, it is wrong, it should be an indicator. We will update the spec.</t>
+  </si>
+  <si>
     <t>1. Data Structures
 2. Documentation</t>
-  </si>
-  <si>
-    <t>C22 - Element Code Mistake</t>
-  </si>
-  <si>
-    <t>If initial answer is yes, please describe them subgroup should have process instruction ONTRUE</t>
-  </si>
-  <si>
-    <t>MC: We will update the spec.</t>
-  </si>
-  <si>
-    <t>MC: Yes, it is wrong, it should be an indicator. We will update the spec.</t>
-  </si>
-  <si>
-    <t>MC: Yes this is intentional because it will allow the CA to either use a business domain description OR a CPV code to provide the domain for the yearly turnover.
-Text will be checked.</t>
   </si>
   <si>
     <t>Many thanks for contributing to the quality of the specification, Millstream. This has been corrected in version 2.0.1. The following artefacts have been updated:
@@ -570,6 +599,15 @@
 The online documentation (released on the 25th February 2018 on the Github v2.0.1 branch)</t>
   </si>
   <si>
+    <t>C22 - Element Code Mistake</t>
+  </si>
+  <si>
+    <t>If initial answer is yes, please describe them subgroup should have process instruction ONTRUE</t>
+  </si>
+  <si>
+    <t>MC: We will update the spec.</t>
+  </si>
+  <si>
     <t>C20 - Spelling Mistake</t>
   </si>
   <si>
@@ -579,7 +617,8 @@
     <t>MC: We update the text</t>
   </si>
   <si>
-    <t>Corrected in v2.0.1 to be released on the Github 2.0.1 branch by the 25th February 2018.</t>
+    <t>1. Data Structures
+2. Criteria Taxonomy spread-sheets (see dist/cl folder)</t>
   </si>
   <si>
     <t>Corrected in v2.0.1 to be released on the Github 2.0.1 branch by the 25th February 2018:
@@ -587,10 +626,6 @@
 2. The SELF-CONTAINED version now reads: Is the economic operator aware of any conflict of interest, as indicated in the ESPD additionally to the national law or the relevant notice, the relevant notice or due to its participation in the procurement procedure?</t>
   </si>
   <si>
-    <t>1. Data Structures
-2. Criteria Taxonomy spread-sheets (see dist/cl folder)</t>
-  </si>
-  <si>
     <t>C18 + C19 = Wrong element code</t>
   </si>
   <si>
@@ -599,6 +634,9 @@
   </si>
   <si>
     <t>Correct, we will update the spec.</t>
+  </si>
+  <si>
+    <t>Corrected in v2.0.1 to be released on the Github 2.0.1 branch by the 25th February 2018.</t>
   </si>
   <si>
     <t>C18 + Question Description</t>
@@ -649,25 +687,32 @@
     <t>MC: We will update the spec</t>
   </si>
   <si>
+    <t>[C7] Payment of taxes + Mapping</t>
+  </si>
+  <si>
+    <t>Mapping for C7 + C8 appear to have a parent group which think is incorrect. This should have 3 primary groups, can you please explain why it has been set up like this?
+This makes no sense to have it this way as the first group is not conditional.</t>
+  </si>
+  <si>
+    <t>???</t>
+  </si>
+  <si>
     <t xml:space="preserve">Dear Millstream,
 In principle this structure maps the behaviour of the ESPD-Service Interface. If we're not wrong the mapping would be logic. But we'd like to hear from you what would be a more correct structure. Could you please propose your own so we can analyse it and come to a common understanding/agreement on the structure of this criterion?
 </t>
   </si>
   <si>
-    <t>[C7] Payment of taxes + Mapping</t>
-  </si>
-  <si>
-    <t>Mapping for C7 + C8 appear to have a parent group which think is incorrect. This should have 3 primary groups, can you please explain why it has been set up like this?
-This makes no sense to have it this way as the first group is not conditional.</t>
-  </si>
-  <si>
-    <t>???</t>
-  </si>
-  <si>
-    <t>Changes applied in release 2.0.1</t>
-  </si>
-  <si>
-    <t>The change requests are maintained in the ESPD-EDM Github Issue space:  https://github.com/ESPD/ESPD-EDM/issues</t>
+    <t>ResponseDataType - EVIDENCE_IDENTIFIER</t>
+  </si>
+  <si>
+    <t>There seems to be a new data type of EVIDENCE_IDENTIFIER listed in the taxonomy document, however this does not exist in the code list document. Can you please advise?</t>
+  </si>
+  <si>
+    <t>It is in the code list document (probably you had an older version)
+https://github.com/ESPD/ESPD-EDM/blob/2.0.0/docs/src/main/asciidoc/dist/cl/xlsx/ESPD-CodeLists-V02.00.00.xlsx</t>
+  </si>
+  <si>
+    <t>The code was introduced in version 2.0.0 to identify the group structuring the data about the information available electronically #UUID 9026e403-3eb6-4705-a9e9-e21a1efc867d</t>
   </si>
   <si>
     <t>Element Code</t>
@@ -700,22 +745,6 @@
 </t>
   </si>
   <si>
-    <t>ResponseDataType - EVIDENCE_IDENTIFIER</t>
-  </si>
-  <si>
-    <t>There seems to be a new data type of EVIDENCE_IDENTIFIER listed in the taxonomy document, however this does not exist in the code list document. Can you please advise?</t>
-  </si>
-  <si>
-    <t>It is in the code list document (probably you had an older version)
-https://github.com/ESPD/ESPD-EDM/blob/2.0.0/docs/src/main/asciidoc/dist/cl/xlsx/ESPD-CodeLists-V02.00.00.xlsx</t>
-  </si>
-  <si>
-    <t>The code was introduced in version 2.0.0 to identify the group structuring the data about the information available electronically #UUID 9026e403-3eb6-4705-a9e9-e21a1efc867d</t>
-  </si>
-  <si>
-    <t>The decision is not to have it in version 2.0.1 as this breaks all possibility of interoperability. However you still have the possibility of "repealling" this decision and we could re-discuss if this should go or not to version 2.0.2.</t>
-  </si>
-  <si>
     <t>All criteria satisfied</t>
   </si>
   <si>
@@ -724,6 +753,9 @@
   </si>
   <si>
     <t>AM: This relates to the alpha criterion and was intenitally not foreseen in version 2.0.0 (regulated and self-contained). We will elaborate if and how it can be included to version 2.0.1. The current discussion has shown that we propably will include this alpha criterion for the "regulated" ESPD version 2.0.1 to maintain equivalence with version 1.0.2 and legal validity. However, in the "self-contained" ESPD version 2.0.1 the intention is still to deprecate this alpha criterion.</t>
+  </si>
+  <si>
+    <t>The decision is not to have it in version 2.0.1 as this breaks all possibility of interoperability. However you still have the possibility of "repealling" this decision and we could re-discuss if this should go or not to version 2.0.2.</t>
   </si>
   <si>
     <t>CRITERIATYPE &gt; CPV &amp; LOTS</t>
@@ -828,18 +860,18 @@
     <t>This same topic is covered in issue #94. Lots are well documented in v2.0.0. However there are some pending aspects that will be discussed between v2.0.1 and v2.0.2. See comments in issue #94, please.</t>
   </si>
   <si>
+    <t>ESPD Part I - V and ESPD EDM</t>
+  </si>
+  <si>
+    <t>While the ESPD Document and the ESPD XML Implementation Guideline mention Parts of ESPD as discrete semantic sections of the ESPD Artifacts, there is no mention of the Parts in either the XSD, Codelists etc. This makes it problematic when implementing, as mentions of criteria, elements etc being a members of specific parts cannot be placed and represented inside those parts only by using the EDM Files.</t>
+  </si>
+  <si>
+    <t>1. Documentation
+2. CodeLists</t>
+  </si>
+  <si>
     <t>After discussing on this topic raised by Jerry, it was considered that the ESPD-EDM specification should not refer to the Parts of the The Annex 2 of the Commission Implementing Regulation (EU) No 2016/7. Right now the only two places where a reference to the Annex are done is 1) in an XML example and in a footnote (footnote 6). 
 The codelist, too, are now devoided of references to the Annex II Parts (see EORoleType).</t>
-  </si>
-  <si>
-    <t>ESPD Part I - V and ESPD EDM</t>
-  </si>
-  <si>
-    <t>While the ESPD Document and the ESPD XML Implementation Guideline mention Parts of ESPD as discrete semantic sections of the ESPD Artifacts, there is no mention of the Parts in either the XSD, Codelists etc. This makes it problematic when implementing, as mentions of criteria, elements etc being a members of specific parts cannot be placed and represented inside those parts only by using the EDM Files.</t>
-  </si>
-  <si>
-    <t>1. Documentation
-2. CodeLists</t>
   </si>
   <si>
     <t>Possibility to refer an Xml Version in the Data Model</t>
@@ -853,20 +885,20 @@
 It’s possible to refer the Xml version been used when the ESPD document was created, regardless if it is a Request or Response document?</t>
   </si>
   <si>
+    <t>Proposal: use the cbc:ProfileExecutionID to identify the specific ESPD-EDM data model (e.g. ESPD-EDMv1.0.2, ESPD-EDMv2.0.0, ESPD-EDMv2.01, etc.)</t>
+  </si>
+  <si>
     <t>1. Documentation
 2. Examples
 3. Business Rules (should be mandatory).</t>
   </si>
   <si>
-    <t>Proposal: use the cbc:ProfileExecutionID to identify the specific ESPD-EDM data model (e.g. ESPD-EDMv1.0.2, ESPD-EDMv2.0.0, ESPD-EDMv2.01, etc.)</t>
+    <t>Code Lists - Missing CriteriaType</t>
   </si>
   <si>
     <t>The latest version of the codelists document is missing some of the new criteria type.
 CRITERION.OTHER.EO_DATA.SME
 CRITERION.OTHER.PROCUREMENT_PROCEDURE_CPV</t>
-  </si>
-  <si>
-    <t>Code Lists - Missing CriteriaType</t>
   </si>
   <si>
     <t>They are not needed anymore.
@@ -912,15 +944,15 @@
     <t>UBL-2.2 insists on the idea that the current model supports well the linking of each response to a particular question.</t>
   </si>
   <si>
-    <t>This has been reviewed and we confirm that the expected response data types in the ESPD Request match the ones expected in the ESPD Response ResponsValue. The Codelist to use is: "ResponseDataType" (see spread-sheet book "ESPD-CodeLists-V02.00.01").</t>
-  </si>
-  <si>
     <t>ValueDataTypeCode v ResponseValue</t>
   </si>
   <si>
     <t>In version 1x of the model the requirement type and the response type used to match. Now ValueDataTypeCodes are not the same as possible ResponseValue nodes.
 For example, there is no equivalent URL or Evidence URL elements in the ResponseValue. There is a description, but then why have it in the ValueDataTypes?
 Can you explain how we may these values to the correct values?</t>
+  </si>
+  <si>
+    <t>This has been reviewed and we confirm that the expected response data types in the ESPD Request match the ones expected in the ESPD Response ResponsValue. The Codelist to use is: "ResponseDataType" (see spread-sheet book "ESPD-CodeLists-V02.00.01").</t>
   </si>
   <si>
     <t xml:space="preserve">EvidenceTypeCode </t>
@@ -938,20 +970,6 @@
   </si>
   <si>
     <t>The types of evidences are so many that to produce a closed list seems if not impossible at least very difficult and needs to be the responsibility of a standardisation organisation.</t>
-  </si>
-  <si>
-    <t>This will be corrected in the documentation of the version 2.0.1. Beware that the UBL Schema allows for cardinality 0..*.
-Nonetheless this has been subject of discussion with UBL-2.2 (i.e. shouldn't the Period and Evidence be specified as elements of the ResponseValue, instead of elements of the cac:Tendering CriterionResponse, even worse: what is the true semantics of the qualifier "Applicable" in the case of Period) values and was decided to postpone a better design for future versions of UBL.</t>
-  </si>
-  <si>
-    <t>cac:TenderingCriterionResponse/cac:ResponseValue cannot be mandatory</t>
-  </si>
-  <si>
-    <t>Cardinality of cac:TenderingCriterionResponse/cac:ResponseValue  should be 0..n</t>
-  </si>
-  <si>
-    <t>The current structure for the response allows responding values inside the cac:ResponseValue element or in other elements of the cac:TenderingCriterionResponse, like cac:TenderingCriterionResponse/cac:ApplicablePeriod and cac:TenderingCriterionResponse/cac:EvidenceSupplied.
-Therefore the cardinality of the cac:TenderingCriterionResponse/cac:ResponseValue should be 0..* (although in most cases only one value is expected there are some cases where a collection of values must be provided, e.g. a list of Lots IDs, see documentation and examples on Lots).</t>
   </si>
   <si>
     <t>Groups - Group Type Codes Missing</t>
@@ -997,6 +1015,15 @@
     <t>When referring to the ESPD Request, the ESPD Response must use the ID and the UUID of the ESPD Request instance. (THIS WAS ALREADY STATED AS A REQUIREMENT IN VERSION 2.0.0).</t>
   </si>
   <si>
+    <t>Evidence Issuer is separate requirement; Should be inside &lt;cev:Evidence&gt;</t>
+  </si>
+  <si>
+    <t>The current implementation of the ESPD Service and the ESPD Data model contains requirement groups that ask for evidence data (Evidence URL, Reference Code, Evidence Issuer). Although these elements can be found in the cev:Evidence element, 3 different non-correlated requirements are used instead:</t>
+  </si>
+  <si>
+    <t>Solved in v2.0.0</t>
+  </si>
+  <si>
     <t>UBL-2.2 accepts our proposal: We will use the cac:DocumentReference/cac:IssuerParty element.
 This was already commented in a special note in version 2.0.0:
 *Duplicity of the Issuer:*
@@ -1004,15 +1031,6 @@
 The ESPD-EDM V02.00.00 uses always the one inside the document reference to refer to the issuer of the evidence (and of the document that 'is' the evidence). Thus the element used in the ESPD is cac:Evidence/cac:DocumentReference/cac:IssuerParty."</t>
   </si>
   <si>
-    <t>Evidence Issuer is separate requirement; Should be inside &lt;cev:Evidence&gt;</t>
-  </si>
-  <si>
-    <t>The current implementation of the ESPD Service and the ESPD Data model contains requirement groups that ask for evidence data (Evidence URL, Reference Code, Evidence Issuer). Although these elements can be found in the cev:Evidence element, 3 different non-correlated requirements are used instead:</t>
-  </si>
-  <si>
-    <t>Solved in v2.0.0</t>
-  </si>
-  <si>
     <t>Wrong reference to code list in cbc: Amount</t>
   </si>
   <si>
@@ -1026,15 +1044,6 @@
   </si>
   <si>
     <t>Some attributes are set in the pom.xml only, forcing use of Maven to build the documentation as intended. Please move those attributes to index.adoc.</t>
-  </si>
-  <si>
-    <t>Unused CodeLists</t>
-  </si>
-  <si>
-    <t>ActivityType and ContractType code lists seem not be used in any case for the ESPD-EDM 2.0.0.</t>
-  </si>
-  <si>
-    <t>In version 2.0.1 these codelists have been removed, as they're not used. ContractType is covered by the CodeList "ProcedureType".</t>
   </si>
 </sst>
 </file>
@@ -1044,18 +1053,16 @@
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1076,14 +1083,14 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1091,23 +1098,23 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1115,25 +1122,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1144,21 +1142,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1456,16 +1451,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="E6" sqref="E6"/>
+      <selection pane="bottomRight" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="1"/>
+    <col min="1" max="2" width="9.140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="40.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="42.140625" style="1" customWidth="1"/>
@@ -1476,293 +1471,273 @@
     <col min="10" max="10" width="59.7109375" style="1" customWidth="1"/>
     <col min="11" max="11" width="20.140625" style="1" customWidth="1"/>
     <col min="12" max="12" width="18.42578125" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="13" max="13" width="9.140625" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>138</v>
+    <row r="2" spans="2:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B4" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="8" t="s">
+      <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="C4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="B5" s="1">
+        <v>133</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" ht="255" x14ac:dyDescent="0.25">
+      <c r="B6" s="1">
+        <v>132</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" ht="240" x14ac:dyDescent="0.25">
+      <c r="B7" s="1">
+        <v>131</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="B8" s="1">
+        <v>130</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="K4" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="L4" s="9" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="B5" s="6">
-        <v>133</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-    </row>
-    <row r="6" spans="2:12" s="2" customFormat="1" ht="255" x14ac:dyDescent="0.25">
-      <c r="B6" s="6">
-        <v>132</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-    </row>
-    <row r="7" spans="2:12" s="2" customFormat="1" ht="240" x14ac:dyDescent="0.25">
-      <c r="B7" s="6">
-        <v>131</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-    </row>
-    <row r="8" spans="2:12" s="2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="B8" s="6">
-        <v>130</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
     </row>
     <row r="9" spans="2:12" ht="195" x14ac:dyDescent="0.25">
-      <c r="B9" s="6">
+      <c r="B9" s="1">
         <v>129</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="5"/>
-      <c r="H9" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-    </row>
-    <row r="10" spans="2:12" s="2" customFormat="1" ht="150" x14ac:dyDescent="0.25">
-      <c r="B10" s="6">
+      <c r="C9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="7"/>
+      <c r="H9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+    </row>
+    <row r="10" spans="2:12" ht="150" x14ac:dyDescent="0.25">
+      <c r="B10" s="1">
         <v>128</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="2" t="s">
-        <v>79</v>
+      <c r="C10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="2:12" ht="360" x14ac:dyDescent="0.25">
-      <c r="B11" s="6">
+      <c r="B11" s="1">
         <v>127</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>65</v>
+      <c r="C11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="2:12" ht="315" x14ac:dyDescent="0.25">
-      <c r="B12" s="6">
+      <c r="B12" s="1">
         <v>126</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="J12" s="6"/>
+      <c r="C12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="13" spans="2:12" ht="90" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
         <v>125</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="2:12" ht="285" x14ac:dyDescent="0.25">
@@ -1770,19 +1745,19 @@
         <v>124</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>28</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="2:12" ht="105" x14ac:dyDescent="0.25">
@@ -1790,22 +1765,22 @@
         <v>123</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="2:12" ht="135" x14ac:dyDescent="0.25">
@@ -1813,22 +1788,22 @@
         <v>122</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>36</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
@@ -1836,16 +1811,16 @@
         <v>121</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>7</v>
+        <v>66</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>8</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="390" x14ac:dyDescent="0.25">
@@ -1853,16 +1828,16 @@
         <v>120</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>9</v>
+        <v>69</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>6</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="390" x14ac:dyDescent="0.25">
@@ -1870,16 +1845,16 @@
         <v>119</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>4</v>
+        <v>72</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>6</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
@@ -1887,26 +1862,25 @@
         <v>117</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>39</v>
+        <v>74</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G20" s="2"/>
+        <v>16</v>
+      </c>
       <c r="H20" s="1" t="s">
-        <v>15</v>
+        <v>75</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J20" s="4" t="s">
-        <v>13</v>
+        <v>76</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="135" x14ac:dyDescent="0.25">
@@ -1914,19 +1888,19 @@
         <v>116</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>45</v>
+        <v>79</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>46</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="195" x14ac:dyDescent="0.25">
@@ -1934,19 +1908,19 @@
         <v>115</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>42</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="120" x14ac:dyDescent="0.25">
@@ -1954,19 +1928,19 @@
         <v>114</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>18</v>
+        <v>85</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>19</v>
+        <v>86</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>46</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="75" x14ac:dyDescent="0.25">
@@ -1974,25 +1948,25 @@
         <v>113</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>58</v>
+        <v>91</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>59</v>
+        <v>92</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="375" x14ac:dyDescent="0.25">
@@ -2000,25 +1974,25 @@
         <v>112</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>47</v>
+        <v>93</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>48</v>
+        <v>94</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>49</v>
+        <v>16</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>95</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>50</v>
+        <v>96</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>63</v>
+        <v>97</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="165" x14ac:dyDescent="0.25">
@@ -2026,49 +2000,49 @@
         <v>111</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>51</v>
+        <v>98</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>52</v>
+        <v>99</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>54</v>
+        <v>100</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>53</v>
+        <v>101</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="195" x14ac:dyDescent="0.25">
-      <c r="A27" s="10"/>
+      <c r="A27" s="8"/>
       <c r="B27" s="1">
         <v>110</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>61</v>
+        <v>103</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>73</v>
+        <v>105</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>62</v>
+        <v>106</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="165" x14ac:dyDescent="0.25">
@@ -2076,19 +2050,19 @@
         <v>109</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="225" x14ac:dyDescent="0.25">
@@ -2096,25 +2070,25 @@
         <v>108</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>103</v>
+        <v>20</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="120" x14ac:dyDescent="0.25">
@@ -2122,25 +2096,25 @@
         <v>107</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="120" x14ac:dyDescent="0.25">
@@ -2148,25 +2122,25 @@
         <v>106</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="165" x14ac:dyDescent="0.25">
@@ -2174,25 +2148,25 @@
         <v>105</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
     </row>
     <row r="33" spans="2:9" ht="75" x14ac:dyDescent="0.25">
@@ -2200,25 +2174,25 @@
         <v>104</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
     </row>
     <row r="34" spans="2:9" ht="180" x14ac:dyDescent="0.25">
@@ -2226,25 +2200,25 @@
         <v>103</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
     </row>
     <row r="35" spans="2:9" ht="180" x14ac:dyDescent="0.25">
@@ -2252,25 +2226,25 @@
         <v>102</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
     </row>
     <row r="36" spans="2:9" ht="90" x14ac:dyDescent="0.25">
@@ -2278,25 +2252,25 @@
         <v>101</v>
       </c>
       <c r="C36" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="I36" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="37" spans="2:9" ht="120" x14ac:dyDescent="0.25">
@@ -2304,22 +2278,22 @@
         <v>100</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
     </row>
     <row r="38" spans="2:9" ht="60" x14ac:dyDescent="0.25">
@@ -2327,25 +2301,25 @@
         <v>99</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>19</v>
+        <v>86</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="39" spans="2:9" ht="409.5" x14ac:dyDescent="0.25">
@@ -2353,25 +2327,25 @@
         <v>98</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>103</v>
+        <v>20</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
     </row>
     <row r="40" spans="2:9" ht="105" x14ac:dyDescent="0.25">
@@ -2379,25 +2353,25 @@
         <v>97</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
     </row>
     <row r="41" spans="2:9" ht="105" x14ac:dyDescent="0.25">
@@ -2405,25 +2379,25 @@
         <v>96</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
     </row>
     <row r="42" spans="2:9" ht="135" x14ac:dyDescent="0.25">
@@ -2431,25 +2405,25 @@
         <v>95</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>103</v>
+        <v>20</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
     </row>
     <row r="43" spans="2:9" ht="390" x14ac:dyDescent="0.25">
@@ -2457,19 +2431,19 @@
         <v>94</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
     </row>
     <row r="44" spans="2:9" ht="409.5" x14ac:dyDescent="0.25">
@@ -2477,25 +2451,25 @@
         <v>93</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
     </row>
     <row r="45" spans="2:9" ht="45" x14ac:dyDescent="0.25">
@@ -2503,22 +2477,22 @@
         <v>84</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
     </row>
     <row r="46" spans="2:9" ht="150" x14ac:dyDescent="0.25">
@@ -2526,22 +2500,22 @@
         <v>83</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
     </row>
     <row r="47" spans="2:9" ht="285" x14ac:dyDescent="0.25">
@@ -2549,22 +2523,22 @@
         <v>82</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
     </row>
     <row r="48" spans="2:9" ht="120" x14ac:dyDescent="0.25">
@@ -2572,22 +2546,22 @@
         <v>81</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
     </row>
     <row r="49" spans="2:10" ht="45" x14ac:dyDescent="0.25">
@@ -2595,25 +2569,22 @@
         <v>80</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="I49" s="1" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
     </row>
     <row r="50" spans="2:10" ht="255" x14ac:dyDescent="0.25">
@@ -2621,25 +2592,25 @@
         <v>78</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>19</v>
+        <v>86</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
     </row>
     <row r="51" spans="2:10" ht="75" x14ac:dyDescent="0.25">
@@ -2647,22 +2618,22 @@
         <v>77</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>19</v>
+        <v>86</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
     </row>
     <row r="52" spans="2:10" ht="180" x14ac:dyDescent="0.25">
@@ -2670,19 +2641,19 @@
         <v>76</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>19</v>
+        <v>86</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
     </row>
     <row r="53" spans="2:10" ht="165" x14ac:dyDescent="0.25">
@@ -2690,22 +2661,22 @@
         <v>72</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>19</v>
+        <v>86</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
     </row>
     <row r="54" spans="2:10" ht="165" x14ac:dyDescent="0.25">
@@ -2713,25 +2684,25 @@
         <v>71</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>19</v>
+        <v>86</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="55" spans="2:10" ht="300" x14ac:dyDescent="0.25">
@@ -2739,22 +2710,22 @@
         <v>63</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
     </row>
     <row r="56" spans="2:10" ht="390" x14ac:dyDescent="0.25">
@@ -2762,28 +2733,28 @@
         <v>62</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>19</v>
+        <v>86</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>82</v>
+        <v>25</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
     </row>
     <row r="57" spans="2:10" ht="225" x14ac:dyDescent="0.25">
@@ -2791,25 +2762,25 @@
         <v>58</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>19</v>
+        <v>86</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
     </row>
     <row r="58" spans="2:10" ht="75" x14ac:dyDescent="0.25">
@@ -2817,25 +2788,25 @@
         <v>42</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E58" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="H58" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="F58" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="H58" s="1" t="s">
-        <v>215</v>
-      </c>
       <c r="I58" s="1" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="59" spans="2:10" ht="60" x14ac:dyDescent="0.25">
@@ -2843,31 +2814,31 @@
         <v>38</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>19</v>
+        <v>86</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="B4:J4"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="0.75" bottom="0.75" header="0.30000000000000004" footer="0.30000000000000004"/>
+  <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
@@ -2878,8 +2849,11 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
+  </cols>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="0.75" bottom="0.75" header="0.30000000000000004" footer="0.30000000000000004"/>
 </worksheet>
 </file>
 
@@ -2890,7 +2864,10 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
+  </cols>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="0.75" bottom="0.75" header="0.30000000000000004" footer="0.30000000000000004"/>
 </worksheet>
 </file>
--- a/docs/src/main/asciidoc/dist/rn/Release Notes-2.0.1.xlsx
+++ b/docs/src/main/asciidoc/dist/rn/Release Notes-2.0.1.xlsx
@@ -14,12 +14,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Folha1!$B$4:$J$30</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="149">
   <si>
     <t>Changes applied in release 2.0.1</t>
   </si>
@@ -609,6 +609,85 @@
   <si>
     <t>From version 2.0.1 on the UBL-2.2 ProfileExecutionID will be used to specify the exact version of the ESPD-EDM. See values in the CodeList "ProfileExecutionID".</t>
   </si>
+  <si>
+    <t>BIS</t>
+  </si>
+  <si>
+    <t>BIS Release notes</t>
+  </si>
+  <si>
+    <t>Changing Cardinality for tir92-137 (Evidence/Evidence identifier) from 0..1 to 1..1.</t>
+  </si>
+  <si>
+    <t>Updating the section "Code Lists"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inclusion of the ESPD version identfier (tir070-299;tir092-299)
+Adding the following Business Rules: TRDM092-55, TRDM072-36 for tir92-299 and tir070-299 to control the Evidence version. </t>
+  </si>
+  <si>
+    <t>Changed class "Declaration fulfilment" from 1..n to 0..n</t>
+  </si>
+  <si>
+    <t>Affects BIS</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>na</t>
+  </si>
+  <si>
+    <t>Changing Cardinality for the class Procurement Project and the subordinated elements tir070-503, tir070-504, tir92-505, tir92-506 from 1..1 to 0..1</t>
+  </si>
+  <si>
+    <t>Adding cardinalitites for "Evidence issuer party" and "Criterion fulfillment URI"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Changing path mentioned in the following Business Rules: TRDM092-13, TRDM092-14 and in the following implementation guidelines tir92-543, tir92-309, </t>
+  </si>
+  <si>
+    <t>Adding the following Business Rules: TRDM092-56, TRDM072-37 for tir070-601, tir092-601 to control the criterion requirement structure.</t>
+  </si>
+  <si>
+    <t>Adding the following Business Rules: TRDM092-57 for tir92-525 to control the confidentiality of responses</t>
+  </si>
+  <si>
+    <t>Removed the element "Postbox" from all address classes</t>
+  </si>
+  <si>
+    <t>Extended requirement description of tbr070-002 and tbr92-019</t>
+  </si>
+  <si>
+    <t>Adding the following elements tir070-601, tir092-601</t>
+  </si>
+  <si>
+    <t>Amending the rule TRDM092-24</t>
+  </si>
+  <si>
+    <t>Adding the Business Rule TRDM092-58 for tir092-526 to control the Criterion Property Groups</t>
+  </si>
+  <si>
+    <t>Adding the "Customization Identifier" for the Request and the Response to the section "Identifiers"</t>
+  </si>
+  <si>
+    <t>Modified the Name of the ListIDs named in the Business Rules TRDM092-33 and TRDM070-BR-22</t>
+  </si>
+  <si>
+    <t>Modified the Implementation Guideline for tir070-061 and tir92-071</t>
+  </si>
+  <si>
+    <t>tir70-502 added to reflect the country name</t>
+  </si>
+  <si>
+    <t>Illustration of the differences between the regulated and the self-contained ESPD in data models and implementation guidelines</t>
+  </si>
+  <si>
+    <t>BIS improvement</t>
+  </si>
 </sst>
 </file>
 
@@ -636,12 +715,24 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="4">
@@ -693,7 +784,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -720,6 +811,15 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1023,13 +1123,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L30"/>
+  <dimension ref="A1:N45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1046,13 +1146,15 @@
     <col min="10" max="10" width="31.140625" style="1" customWidth="1"/>
     <col min="11" max="11" width="20.140625" style="1" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="18.42578125" style="1" hidden="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="13" max="13" width="20.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="49.28515625" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B1" s="9"/>
     </row>
-    <row r="2" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1061,7 +1163,7 @@
       </c>
       <c r="J2" s="1"/>
     </row>
-    <row r="4" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
@@ -1095,8 +1197,14 @@
       <c r="L4" s="6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="M4" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="N4" s="11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <v>133</v>
       </c>
@@ -1115,8 +1223,14 @@
       <c r="I5" s="1" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" ht="255" x14ac:dyDescent="0.25">
+      <c r="M5" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="N5" s="12" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="255" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <v>132</v>
       </c>
@@ -1141,8 +1255,14 @@
       <c r="J6" s="1" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" ht="240" x14ac:dyDescent="0.25">
+      <c r="M6" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="N6" s="12" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="240" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <v>131</v>
       </c>
@@ -1167,8 +1287,14 @@
       <c r="J7" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="M7" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="N7" s="12" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <v>130</v>
       </c>
@@ -1190,8 +1316,12 @@
       <c r="I8" s="1" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+      <c r="M8" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="N8" s="12"/>
+    </row>
+    <row r="9" spans="1:14" ht="150" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <v>128</v>
       </c>
@@ -1216,8 +1346,14 @@
       <c r="K9" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" ht="360" x14ac:dyDescent="0.25">
+      <c r="M9" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="N9" s="12" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="360" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <v>127</v>
       </c>
@@ -1242,8 +1378,12 @@
       <c r="J10" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="M10" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="N10" s="12"/>
+    </row>
+    <row r="11" spans="1:14" ht="105" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
         <v>123</v>
       </c>
@@ -1265,8 +1405,12 @@
       <c r="I11" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+      <c r="M11" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="N11" s="12"/>
+    </row>
+    <row r="12" spans="1:14" ht="135" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
         <v>122</v>
       </c>
@@ -1288,8 +1432,12 @@
       <c r="I12" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="M12" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="N12" s="12"/>
+    </row>
+    <row r="13" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
         <v>117</v>
       </c>
@@ -1314,8 +1462,12 @@
       <c r="J13" s="7" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" ht="375" x14ac:dyDescent="0.25">
+      <c r="M13" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="N13" s="12"/>
+    </row>
+    <row r="14" spans="1:14" ht="375" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
         <v>112</v>
       </c>
@@ -1340,8 +1492,12 @@
       <c r="I14" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" ht="165" x14ac:dyDescent="0.25">
+      <c r="M14" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="N14" s="12"/>
+    </row>
+    <row r="15" spans="1:14" ht="165" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
         <v>111</v>
       </c>
@@ -1363,8 +1519,12 @@
       <c r="I15" s="1" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" ht="195" x14ac:dyDescent="0.25">
+      <c r="M15" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="N15" s="12"/>
+    </row>
+    <row r="16" spans="1:14" ht="195" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
       <c r="B16" s="1">
         <v>110</v>
@@ -1390,8 +1550,12 @@
       <c r="I16" s="1" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="17" spans="2:9" ht="165" x14ac:dyDescent="0.25">
+      <c r="M16" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="N16" s="12"/>
+    </row>
+    <row r="17" spans="2:14" ht="165" x14ac:dyDescent="0.25">
       <c r="B17" s="1">
         <v>109</v>
       </c>
@@ -1410,8 +1574,12 @@
       <c r="I17" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="18" spans="2:9" ht="225" x14ac:dyDescent="0.25">
+      <c r="M17" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="N17" s="12"/>
+    </row>
+    <row r="18" spans="2:14" ht="225" x14ac:dyDescent="0.25">
       <c r="B18" s="1">
         <v>108</v>
       </c>
@@ -1436,8 +1604,12 @@
       <c r="I18" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="19" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="M18" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="N18" s="12"/>
+    </row>
+    <row r="19" spans="2:14" ht="120" x14ac:dyDescent="0.25">
       <c r="B19" s="1">
         <v>107</v>
       </c>
@@ -1462,8 +1634,12 @@
       <c r="I19" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="20" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="M19" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="N19" s="12"/>
+    </row>
+    <row r="20" spans="2:14" ht="120" x14ac:dyDescent="0.25">
       <c r="B20" s="1">
         <v>106</v>
       </c>
@@ -1488,8 +1664,12 @@
       <c r="I20" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="21" spans="2:9" ht="165" x14ac:dyDescent="0.25">
+      <c r="M20" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="N20" s="12"/>
+    </row>
+    <row r="21" spans="2:14" ht="165" x14ac:dyDescent="0.25">
       <c r="B21" s="1">
         <v>105</v>
       </c>
@@ -1514,8 +1694,12 @@
       <c r="I21" s="1" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="22" spans="2:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="M21" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="N21" s="12"/>
+    </row>
+    <row r="22" spans="2:14" ht="75" x14ac:dyDescent="0.25">
       <c r="B22" s="1">
         <v>104</v>
       </c>
@@ -1540,8 +1724,12 @@
       <c r="I22" s="1" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="23" spans="2:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="M22" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="N22" s="12"/>
+    </row>
+    <row r="23" spans="2:14" ht="180" x14ac:dyDescent="0.25">
       <c r="B23" s="1">
         <v>103</v>
       </c>
@@ -1566,8 +1754,12 @@
       <c r="I23" s="1" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="24" spans="2:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="M23" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="N23" s="12"/>
+    </row>
+    <row r="24" spans="2:14" ht="180" x14ac:dyDescent="0.25">
       <c r="B24" s="1">
         <v>102</v>
       </c>
@@ -1592,8 +1784,12 @@
       <c r="I24" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="25" spans="2:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="M24" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="N24" s="12"/>
+    </row>
+    <row r="25" spans="2:14" ht="90" x14ac:dyDescent="0.25">
       <c r="B25" s="1">
         <v>101</v>
       </c>
@@ -1618,8 +1814,12 @@
       <c r="I25" s="1" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="26" spans="2:9" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="M25" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="N25" s="12"/>
+    </row>
+    <row r="26" spans="2:14" ht="409.5" x14ac:dyDescent="0.25">
       <c r="B26" s="1">
         <v>98</v>
       </c>
@@ -1644,8 +1844,12 @@
       <c r="I26" s="1" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="27" spans="2:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="M26" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="N26" s="12"/>
+    </row>
+    <row r="27" spans="2:14" ht="105" x14ac:dyDescent="0.25">
       <c r="B27" s="1">
         <v>97</v>
       </c>
@@ -1670,8 +1874,12 @@
       <c r="I27" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="28" spans="2:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="M27" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="N27" s="12"/>
+    </row>
+    <row r="28" spans="2:14" ht="105" x14ac:dyDescent="0.25">
       <c r="B28" s="1">
         <v>96</v>
       </c>
@@ -1696,8 +1904,12 @@
       <c r="I28" s="1" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="29" spans="2:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="M28" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="N28" s="12"/>
+    </row>
+    <row r="29" spans="2:14" ht="135" x14ac:dyDescent="0.25">
       <c r="B29" s="1">
         <v>95</v>
       </c>
@@ -1722,8 +1934,12 @@
       <c r="I29" s="1" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="30" spans="2:9" ht="300" x14ac:dyDescent="0.25">
+      <c r="M29" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="N29" s="12"/>
+    </row>
+    <row r="30" spans="2:14" ht="300" x14ac:dyDescent="0.25">
       <c r="B30" s="1">
         <v>63</v>
       </c>
@@ -1744,6 +1960,475 @@
       </c>
       <c r="I30" s="1" t="s">
         <v>122</v>
+      </c>
+      <c r="M30" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="N30" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="F31" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+      <c r="M31" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="N31" s="12" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="B32" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="I32" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="J32" s="11"/>
+      <c r="M32" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="N32" s="12" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="B33" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="F33" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="I33" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="J33" s="12"/>
+      <c r="M33" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="N33" s="12" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="B34" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E34" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="F34" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="I34" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="J34" s="12"/>
+      <c r="M34" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="N34" s="12" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="B35" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="F35" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="I35" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="J35" s="12"/>
+      <c r="M35" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="N35" s="12" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="B36" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E36" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="F36" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="I36" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="J36" s="12"/>
+      <c r="M36" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="N36" s="12" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="B37" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E37" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="F37" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="I37" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="J37" s="12"/>
+      <c r="M37" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="N37" s="12" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B38" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="D38" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E38" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="F38" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G38" s="12"/>
+      <c r="H38" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="I38" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="J38" s="12"/>
+      <c r="M38" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="N38" s="12" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B39" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E39" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="F39" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G39" s="12"/>
+      <c r="H39" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="I39" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="J39" s="12"/>
+      <c r="M39" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="N39" s="12" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="B40" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="D40" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E40" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="F40" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G40" s="12"/>
+      <c r="H40" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="I40" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="J40" s="12"/>
+      <c r="M40" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="N40" s="12" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="B41" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="D41" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E41" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="F41" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G41" s="12"/>
+      <c r="H41" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="I41" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="J41" s="12"/>
+      <c r="M41" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="N41" s="12" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="B42" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="D42" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E42" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="F42" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G42" s="12"/>
+      <c r="H42" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="I42" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="J42" s="12"/>
+      <c r="M42" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="N42" s="12" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="B43" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="D43" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E43" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="F43" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G43" s="12"/>
+      <c r="H43" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="I43" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="J43" s="12"/>
+      <c r="M43" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="N43" s="12" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B44" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="D44" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E44" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="F44" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G44" s="12"/>
+      <c r="H44" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="I44" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="J44" s="12"/>
+      <c r="M44" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="N44" s="12" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="B45" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="C45" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="D45" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E45" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="F45" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G45" s="12"/>
+      <c r="H45" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="I45" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="J45" s="12"/>
+      <c r="M45" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="N45" s="12" t="s">
+        <v>147</v>
       </c>
     </row>
   </sheetData>
